--- a/data.cvs.xlsx
+++ b/data.cvs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slokesh\Desktop\ai\baasri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B618A-A133-4340-8C8C-B67D0B54C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92F3C3-FDF3-4CE1-8BAA-FE012C17A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B4FD18E8-6B06-4C7D-A279-1E8849D58FAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -48,49 +48,196 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>latest, heritage, exclusive</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>art-silk</t>
+  </si>
+  <si>
+    <t>Rose pink Blended Art Silk Saree</t>
+  </si>
+  <si>
+    <t>Rose pink Blended Art Silk Saree with Plain Body and Zari Border. Includes unstitched blouse.</t>
   </si>
   <si>
     <t>{
 	"Material": "Silk",
-	"Weight": "750 gm",
-	"Saree Size": "6 mts",
-	"Blouse Size": "1 mtr",
-	"Border: Silk" "Blend",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
 	"Zari Type": "Half-Fine Zari",
-	"Saree Colour": "Orange",
-	"Blouse Color": "Orange"
+	"Saree Colour": "Rose Pink",
+	"Blouse": "Contrast"
 }</t>
   </si>
   <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>latest, heritage, exclusive</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>/silk/87654322/main.jpg, /silk/87654322/pallu.jpg, /silk/87654322/3.jpg, /silk/87654322/4.jpg</t>
-  </si>
-  <si>
-    <t>Green color silk saree with Golden Zari</t>
+    <t>latest, exlusive</t>
+  </si>
+  <si>
+    <t>01.jpeg, 02.jpeg, 03.jpeg, 04.jpeg</t>
+  </si>
+  <si>
+    <t>Mustard Blended Art Silk Saree</t>
+  </si>
+  <si>
+    <t>Mustard Blended Art Silk Saree with Stripes on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>{
+	"Material": "Silk",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
+	"Zari Type": "Half-Fine Zari",
+	"Saree Colour": "Mustard",
+	"Blouse": "Contrast"
+}</t>
+  </si>
+  <si>
+    <t>Beige Blended Art Silk Saree</t>
+  </si>
+  <si>
+    <t>Beige Blended Art Silk SareeChecked design on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>{
+	"Material": "Silk",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
+	"Zari Type": "Half-Fine Zari",
+	"Saree Colour": "Beige",
+	"Blouse": "Contrast"
+}</t>
+  </si>
+  <si>
+    <t>Yellow Blended Art Silk Saree</t>
+  </si>
+  <si>
+    <t>{
+	"Material": "Silk",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
+	"Zari Type": "Half-Fine Zari",
+	"Saree Colour": "Yellow",
+	"Blouse": "Contrast"
+}</t>
+  </si>
+  <si>
+    <t>Yellow Blended Art Silk Saree with Zari Brocade on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>Pink Blended Art Silk Saree</t>
+  </si>
+  <si>
+    <t>Pink Blended Art Silk Saree with Zari Butta on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>{
+	"Material": "Silk",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
+	"Zari Type": "Half-Fine Zari",
+	"Saree Colour": "Pink",
+	"Blouse": "Contrast"
+}</t>
+  </si>
+  <si>
+    <t>BS25031001</t>
+  </si>
+  <si>
+    <t>BS25031002</t>
+  </si>
+  <si>
+    <t>BS25031003</t>
+  </si>
+  <si>
+    <t>BS25031004</t>
+  </si>
+  <si>
+    <t>BS25031005</t>
+  </si>
+  <si>
+    <t>Pure Silk Pure Zari Green Dual Tone Kanchipuram Saree</t>
+  </si>
+  <si>
+    <t>Pure Silk Pure Zari Green Dual Tone Kanchipuram SareeChecked design on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>BS25032001</t>
+  </si>
+  <si>
+    <t>{
+	"Material": "Silk",
+	"Weight": "700 gm",
+	"Saree Size": "5.5 x 1.1 mts",
+	"Blouse Size": "0.8 x 1.1 mtr",
+	"Border:  "Zari Border",
+	"Zari Type": "Half-Fine Zari",
+	"Saree Colour": "Green",
+	"Blouse": "Contrast"
+}</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>01.jpeg, 02.jpeg, 03.jpeg, 04.jpeg, 05.jpeg</t>
+  </si>
+  <si>
+    <t>Green Kanchipuram Silk Saree</t>
+  </si>
+  <si>
+    <t>BS25032002</t>
+  </si>
+  <si>
+    <t>Green Kanchipuram Silk Saree with Zari Brocade on the body and Zari Border. Includes unstitched blouse.</t>
+  </si>
+  <si>
+    <t>latest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,12 +260,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,25 +608,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BED487-A9CF-46D6-A9DA-4C0B731A5E24}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="29.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,31 +640,196 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
